--- a/biology/Biologie cellulaire et moléculaire/Méthionine_synthase/Méthionine_synthase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Méthionine_synthase/Méthionine_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine_synthase</t>
+          <t>Méthionine_synthase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthionine synthase, ou 5-méthyltétrahydrofolate-homocystéine méthyltransférase est l'enzyme qui catalyse la dernière étape de la biosynthèse de la méthionine à partir de l'homocystéine et du 5-méthyltétrahydrofolate (5-CH3-FH4) à l'aide d'un cofacteur, la cobalamine, ou vitamine B12, qui reçoit temporairement le méthyle du 5-CH3-FH4 pour former de la méthylcobalamine.
-Chez l'homme, elle est codée par le gène MTR[1],[2]. 
-Elle assure la production de méthionine, un acide aminé, à partir de l'homocystéine. Elle fait également partie du cycle de biosynthèse et de régénération de la S-adénosylméthionine[3].
+Chez l'homme, elle est codée par le gène MTR,. 
+Elle assure la production de méthionine, un acide aminé, à partir de l'homocystéine. Elle fait également partie du cycle de biosynthèse et de régénération de la S-adénosylméthionine.
 </t>
         </is>
       </c>
